--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/23_Çankırı_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/23_Çankırı_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A21FC32B-CE4E-4546-9D70-5260ECB246FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3557FC9E-3AEB-406A-B278-63B85CF75843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="651" xr2:uid="{482FB243-3871-4E1D-84F7-86916C958871}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{FBED88B7-AA71-4D81-BD7C-B2852DFC247F}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{80AA48D3-4FAB-4E11-8AEB-B641050720C9}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F038E6A3-89CB-44A8-81EE-389893039169}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{812CD9C5-6A66-4BE7-AFE5-A95EBB6ECE2E}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{783D66F9-FDFC-4693-B2CF-FF7A778ECBC2}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{085C2EF4-91FB-4297-8518-ADDAF09EE15E}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{9DED3F2F-D5FF-4F0A-A0E2-AE9343AD3379}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{CABA5AA5-36A7-450E-82E3-75DAAAF98290}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{35C1D4AF-20D7-4656-BDCB-FFD978D096F8}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{27B82ACE-3F01-4A25-BB0B-AF1B2A6B6464}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{FFE96B56-00D1-4FD4-98AB-DF2E138B72D0}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{887B8034-7AC6-4158-BB39-54294E60B882}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{0A206015-1EF8-4FDB-AE17-F9A1D8237885}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{78F95764-DFA3-4D53-AE58-25FE654FA50F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{3D3C6080-F38B-4594-956E-C070F5612B22}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDE7106-E58E-4893-BA87-F7A38500BED0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA279E7-F21F-4869-A45F-B46955D27D1E}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2604,17 +2604,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D7DF8986-D185-40F9-A271-C3FB9E787FE7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DE2F6E71-14D1-4CE9-BA22-60550F0CF707}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{70DBD596-C80E-44B5-9A69-F312BE47A9DF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0645B9FF-14A8-4CD4-9B63-9F0333E61D90}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1FA51BA4-83B7-4A03-834D-CCEAFADE8A94}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{63508F0D-E992-4E19-AE13-8EFAA4EE4E88}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89CA344B-89B1-4B07-8848-9FBBF4AA50B9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A6E47958-F510-4667-BAC1-31CE6C706838}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A734A545-558A-4F95-B663-53492CC25628}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1AFCED93-7157-4163-9CA3-A2323D544379}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6083EC8-0DAD-4245-95DE-288479C0F9DB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9C9B2FDC-F5BE-44B1-A93A-E9FD058D0F33}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6EDE654A-8381-49B4-9118-AF468B6E47F3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9AB02D65-80C6-44F1-91F7-3C44D88DD05C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C4FA3788-1AF2-432B-8A23-ED6272FE324E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FD95F746-332A-4AB0-A7A6-1D145033C3DD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4E3C2ED7-2175-43B9-AFCD-19FCD6668127}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{63334947-8DF8-4DDE-B5D3-F2C1263D9A18}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{21DA7791-4971-48A8-81D8-A9637F71DAF4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7C7E62DA-0BCE-46A5-8F3A-2B986611E018}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{39A5D77D-C9F4-42B6-B701-CCBC48CED4AE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36B72C77-F0DD-4001-A11F-C2400EE08FB0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2627,7 +2627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE039831-F81D-43AA-BD7B-686C174E400F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9EA29E-F505-448E-A41C-4A6E3667B7E1}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3869,17 +3869,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{13F38208-1A93-47B0-9468-F58933AF3749}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{86F78B45-2BD1-4C66-B4F2-54F0D1E49AD5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{95D30E42-B910-4633-A7BC-82A8447CA54C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F38D5F92-B673-42B0-8FD2-29997BA57883}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2EDF38B7-A7DA-4A6C-9660-FCEF1158C117}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6243231E-4782-44D4-9F90-665D39F6C139}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6E60FDF0-22AA-43BE-8E32-095E1017679A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C1BB6B00-DD52-4AC1-BED4-141BFA64C6A3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{24B8DAC4-85AD-4C7E-81BF-C205F1C30641}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AC7661BD-76D1-4704-90A9-4BB4CC11C636}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE0448C2-3793-4A8A-921D-6F8CE3DA598C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{78A55F22-B2ED-45C5-AEA7-89891A96DE92}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6AFFFD92-2DD8-4480-A700-DF5996F5E476}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A4C922C5-00E3-4735-A10A-B0FC3419D344}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{335C4A14-32BC-4CC4-978F-C77DA9379D3A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{022C8F3E-096A-4116-87A5-E7F608DD6117}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{28B513A6-C265-405B-A2D3-729FC736578C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17DA072E-7DA0-4EC6-A260-6E2F23DE347C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{85E8653A-C189-45D5-9C1B-2E21009459C5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2442F4F2-9D27-4244-970F-B57AEB9AF3F2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E953E805-2121-491E-A6DC-DC10D3CFCF5F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B9B4595-60C1-488E-BB24-628CCC17CB4C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3892,7 +3892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D9C30D-9364-4173-BC7F-03EE8F2B0823}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74FEC46-EA51-46F5-BAA0-3827803F3246}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5128,17 +5128,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D47A55E-17B4-49B7-9996-AB218ABBC76D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{58627909-9A3B-4AA1-931F-CD29F6F3BE54}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3E86FD18-D8DF-4856-87E1-DEB943780695}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{43CF4382-6EF3-4E09-B55E-86638F16AB46}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2A9F6BC0-E817-4F6A-AFE8-B31DF435E1A8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3D7134B4-0B13-4EC6-B3E9-57B61383537F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A259869-1850-4247-9B24-C85D169C73EC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0895CDCA-EA63-4307-80EE-8224F6D4A5DA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5B580162-FCEF-4FAC-8060-C0D7F5BA218E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{782A22AA-081C-417F-90A7-1CAE59D66F65}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B3BC5117-4365-4235-A5C6-35702C9D1648}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8134FFDB-7642-4D5F-8990-918B5B0368EE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{377989E3-8DCF-4515-8876-79D714D60852}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E004EDD8-49A3-4979-85CC-9E9EE50C5B15}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DB5FE3C5-6104-4E19-8B02-59F569108206}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C4DAB658-D401-4235-A8A4-557C8B955402}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1E087CAF-8D26-40E6-86F3-ECB6E5BCE4F0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B7CD205-524A-43D4-BE3A-15585C499326}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{67D1DA47-DF21-4FA4-AF8A-61B0722F79F2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DBB70F44-AC04-488D-8874-2100FD571253}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5755160E-03F9-48D3-ADE1-8EC5B4031DE7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C817DE84-9508-4238-8199-9D727B549761}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5151,7 +5151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8840F260-DC0E-41E4-823A-B55D782F71A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AF609A-E917-4BCB-A16E-48A307B7D939}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6377,17 +6377,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A5DD0226-D0DE-4B95-88F0-E2F1751903DD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA4F5A71-155E-4A7D-8B42-0233850B6C50}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FB69DC50-954C-4C74-888F-A8C84A189878}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8E5CB428-5F5D-42FE-9094-EC8229AAA4E1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{92E21DA1-94B5-493D-A8D2-5FAF21EDF360}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{394B1393-BE2F-4004-84E8-0CE16B48DA87}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7CA525E0-CA12-446F-9381-44BBF9C991F1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FBBB3B07-BB2C-417E-A2D6-30D70E12D83E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A0BE8DC6-2861-42D4-9059-EDFA388E3B43}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D40E5847-E442-43A0-979C-F82721D32A39}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9B42C16-860D-4675-8082-2D1E83838D33}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F82A40A3-8D05-4F96-9BDC-94356FF53EB3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE119B12-4F1A-4D94-87C1-598489C443CD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4FA04B2D-516B-45AD-AAE1-271FAB064B15}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{251FE26F-D327-4E70-B928-88B37DA14D41}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{27A0E014-92C2-45E4-96A2-2720637F3689}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9A594699-4332-4A6B-A6CB-C7992235AAED}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ABD107B1-4E63-4199-9D53-7E6D2C266CAE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B1A9962E-E848-49E9-9DBD-E257F41A60D3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CFBD9C81-F4C1-49B0-86F6-7626D554F348}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7B708609-503B-407E-B953-4CFF708A4198}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{146FEC9A-E8F8-4C6E-99F6-F21E11BDD4F7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6400,7 +6400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B7D201-5A34-49C2-84AE-307A5148D602}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835E59EA-FD78-4163-B2CA-7E6D589F206B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7649,17 +7649,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2B0BB339-DBDB-4098-A026-D55249AE142A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{45C4A305-2EE6-40FC-94A1-3570547F50B0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{27F71942-FD2D-440E-A673-BC0FF8F2EFA9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F5808A6A-1039-4634-B3D8-6223F0B919B4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FFA8E862-578C-435F-9880-9835972DD6F4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F470C107-06E4-4531-9EC2-3B761A5FD217}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{00A035A5-3B2D-4EA7-A8C6-8C2CCF78A61C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C1843374-919E-4FEA-9B0D-00611EBF83FE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{77E313D1-FAAC-448F-B8E5-910216797F43}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{73D59A24-0267-41C9-9424-AD31EC7F03FD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4ADA344F-E2AD-4CAD-BAC6-8305C9C923EB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CED4AA98-2095-47D9-9A85-AD43B744CE86}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1D135485-2C8A-4C83-ABE7-897132A5EEB1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9C95ECDD-9C08-4EC0-A537-4E99F0C8DCAA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9CDEC4FD-A01D-4CEA-AEAE-F3A5C439C5B7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{64EE4441-E539-4832-864A-036E6218D1BE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{016BE2CC-6CAF-483E-8355-FBCA3F61978C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9E6A4030-9A96-4795-881A-3B900F90F48D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5CEE6CFF-7FE3-4F3C-B0B9-493F6BD4040E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D31AFA78-5E99-41A9-9A39-A1185A746CD4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B540FD04-BF41-44C6-B014-5B49843CF088}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9BCC80EE-14F3-4F59-8F52-806B6E2A16D1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7672,7 +7672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0B1D5C-134D-4EC1-BECA-9183BA6C70EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DFE6FE-216B-4E9B-A380-58E98750018A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8923,17 +8923,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{075C6B00-9EA6-4214-B375-7CA1894DE021}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A68331CD-4FFA-4BD6-8741-1350715859FA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{757126A7-0FB7-4B73-ABEE-FCF384485C92}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9F71A129-21D3-4A00-8991-467C3C2E578B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{78143C0A-1910-42CF-BEAA-560E998DB450}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6EBAF67C-878E-4766-A989-9694A2EB442A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{66FBDCF9-B639-4628-B658-D9AF62891255}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1C4A2A4F-C5A3-4052-A2A7-8E79E11B7DC6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2DC56922-11D9-437B-8F58-448D2794A4B5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{22D97782-4F06-4795-94D6-04A24AA512AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FA9D5434-D411-4C56-9627-B4BCDB6FC855}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{577AC604-7DA9-47F3-BAA9-B785BCA6C44B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31583E55-1D71-4B8C-932F-5BF572DC631C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{79973260-CD3E-446A-91A4-EC1487DA0E18}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1CACC697-4C44-43CA-B2AE-DDAE09EA2787}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9A94382D-FD6D-408F-9362-F62F3B971B24}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8213149D-9569-43DA-A8EE-3A5CB88E335B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2F4B5F28-F1FB-44A1-BA47-8901128D54A3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A1FF7B38-3825-4C43-83BF-F0639CAD16D4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{01D6D0B9-EB6D-421D-BB80-B7D8B85B1252}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FC9A035B-F952-4A17-847B-CE7CF51691A7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB8CD596-01F6-4CAE-8B25-C890EDADCAC7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8946,7 +8946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECD8AD1-DE45-41EA-A073-1F70A8B6459D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5ED481-3F01-4B64-85E2-8A0BC22E1C36}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10195,17 +10195,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{52DB21F0-8639-40BF-B026-697E4A6BB13A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{68AC7DC8-5C7E-4942-834E-426424374EDB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0EC09373-3F02-4383-A466-7C4EF02052AC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D2042D68-E55A-449A-81F4-2B048A25A9BA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C020854-9C95-481B-982A-406D4BCA151E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{05EBA32D-B4FA-40D2-A9EA-E910E15D8BDC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E0E4D7D8-57AB-44E2-AE4B-A13AF0B92354}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9A09C14-21D3-4426-A93A-4CD2F5427E7F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DBFADB73-868B-43F1-A783-980B04650698}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9906D17C-4B23-4EA7-BEEA-A54FA8A7F3D8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A0AF9A8-7318-4C47-BD57-E96E802A8C55}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{667DF54C-185F-48F9-B903-95B61837C12D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{60A34A6A-FF64-44A5-ADE9-62335F5262DF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8E77B5D0-9F2F-44AF-A5B4-432926F85C0A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C4A96893-07DC-41C2-9351-884BB47972F6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FABF3B3D-A56B-4A16-8DC3-99F8794CDB9A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4BB6629B-0B7F-499B-A619-B73F9A565D8E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F37780A2-ED50-4DEF-B257-8F8CDA7C031B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B162C6A4-84F3-4008-92D6-873F300A8C82}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7BFE3DCA-E669-4493-82A9-01BA94A555F0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8568CB4D-6482-472B-93BB-05E84E0AFBB0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{39A8C9F3-960E-41BC-B7BD-C3844758AC89}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10218,7 +10218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB27064-EF51-41E2-A03C-171E9D1C908C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889BE47D-2D45-4644-BC02-624A023E20C4}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11469,17 +11469,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{41AA5872-1561-42AC-91A8-9CE8E2763C65}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0512F176-37CF-449F-83E6-6130A0538AC2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E26539D9-CDF3-449C-97B7-1E3920F621CE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FB2ECF45-71CA-4210-97DE-8513A0C90BBE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FA9AC721-C8FA-4893-B53E-6AE53D7AEAE6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CF4949FC-07DF-4B99-87D3-D03FCEA4859A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FABCF2B6-6945-438E-A137-0D4E5483B99F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BEAC3D96-FD66-4182-BD42-5D4B78FC487D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{61079A3C-2C63-4621-B67F-4EA84D32B4DA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CB9D222B-AAF4-4B27-A686-43823B616741}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6EB84DD8-F968-4E14-BF79-478FC012BD08}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F36E0FE-95F2-460E-8A7C-A5965B183F11}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CBCE95BB-D25C-4806-8118-C2397EE3BD5F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DCDA76B6-5E94-4889-A642-E4896D853182}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F6A1477E-994B-4147-AE45-CAB872D95FD6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C5DEFD0-0237-40A2-809C-7BC14C0519B3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{047EAB30-32E1-4701-957F-95DF066F3541}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{74215661-6C2F-425B-BC0A-60E7FBF3C783}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B64AD31-279D-49C8-840A-75C03E46BF9F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AA1A491A-10B0-4CFA-8248-4141DA9FACF8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2820DDDC-F683-48F3-9359-784A701A4449}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ED734C74-2A9D-442F-8547-8AB14E35314C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11492,7 +11492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380F21AC-7685-4D42-9701-520074553B92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB794B8-71AE-40CC-9EFB-2E7612B955FD}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12743,17 +12743,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{070DA8E1-DE49-49EB-BBD4-330D18D8BC76}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2F8494AB-D8FB-41FB-9C63-05FE27F50202}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{85884D20-BFF5-4D63-984A-F4EC896B6925}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9887161F-7253-4D7D-9956-00C70E99E98E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{60E13BCF-1E3C-440E-9DEC-E41587A006D6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B571B8A6-70A4-48D8-B5CD-4207A2A865F5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CC8AE1F5-882C-48DA-BC34-47AF8F69AA21}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A472C045-B457-4B0B-802B-34AD3F28B420}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{02A2772E-BCDA-4FD2-9D94-27A6BBC559C9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F557EC07-F30E-4D5B-9D1C-2FE6C02D88E8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DA3BC626-3084-48FB-B438-7D7377F1BE92}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C6A9990-D316-47E6-93EF-75B9B1869E17}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B5D8E68B-6B86-4BC3-85CB-67D1F944CED3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CFC4892C-9C8D-4629-BCFB-9724394840B8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A09CF04A-DD6C-4FBF-9325-D3BCA7CBB105}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C73176F8-F9E3-4F1F-932B-B44E866C94CB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8DA2C1D7-1A3B-493F-BB37-EC3FCD1CB6AF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6956B365-D572-4746-A46E-B3408ABFD4B8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{94174FFF-316F-4092-9BA7-3E32CE0C94CF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{04A33170-8AAB-4411-ACF7-EF02A22B3C85}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{08AA5782-19EF-4426-8491-1F11599C3808}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{96679DE4-845C-46FE-83AC-0BECED434540}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12766,7 +12766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EF1D76-ACE2-4277-ACAA-5D62D6D29FB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B971E7F-6934-4C6C-8C37-8CCB7E910A00}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14015,17 +14015,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{785F2FD3-92BB-43E8-BD2D-664FE08FB3A0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9BBCA8A3-711D-42A2-B1D3-732C4D93AC12}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{72A6B5E9-64F8-40DC-9FB8-D237F8A00C4D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E1CDB72F-57F6-4E2B-BA7A-FA6808F2A06A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{221B79DA-A93D-42E0-B80A-9C20CD5A466B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B4EAD6AA-0D6C-491F-8E74-1128B9621F76}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4B17AAB9-284F-4455-91CB-67E2527BF3C1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C49C412-F99D-4540-AC0C-4BCB12CD6FE2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{74C7D9BE-CC41-4DAB-8354-DAED456ECC76}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D90824A4-DCF0-409F-A15B-D5612A285AE6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DA37DF32-C738-47E5-BCCB-5C9AC2042B1A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF8699CF-A713-4ABD-B671-4D4B85EBF42D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC3CBB55-48D8-4973-8297-773FFC390F68}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1B24C9FC-A148-44CF-904F-C627ABDB61BC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2A4ABA4B-52B3-43FE-8821-B4738B841068}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5DB6329C-D001-4D8A-A95F-463D83E27E93}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{739EB2C5-C200-4F91-8F3F-A2A126632A0E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8293BA11-F624-4C45-A063-24A3B12067B5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{56F9C813-A13E-4884-B7D2-CF89FF2C1897}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5210FB9F-A5AE-4DA5-9C9A-D616594399D9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B93703D4-129B-4775-B9DA-FF6398046EDC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0827B775-828C-45F1-AE89-8F7CD511242B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14038,7 +14038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7A8EFA-2E52-4263-A477-D78C06ED2720}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FE06A6-0C85-4115-A514-33A687D8B8D6}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15288,17 +15288,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39EDDB38-35F8-45D8-9200-A5B8C413B7E2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A0F06529-738D-4573-9FE9-8C6F0F351941}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EA4A549A-4070-4509-AA4D-4517607CCF3C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C8CC2512-B4FD-47E9-A912-D0F4B0D4A1D9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B0F322B8-58E6-40E3-A0C5-DBF7E9F1B2F2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{80A2FF9F-66C3-4094-95F6-816935BDE05E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ED4AD464-6B70-4FE4-A74A-469CC9E8F683}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{533F2321-7217-4246-947A-3851C9A9B386}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2B2055B4-9936-41C7-B3E5-4D1BBC673CB1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5B000D2F-D517-467F-9AD6-91F04E174847}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9FDC268D-C899-4CE8-AABF-EBD9BA70A8FA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{894719B6-D42C-4438-A0B9-D4E45A54CEB1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{58631EE9-35C4-4A24-886F-9F9BC7FEF4F4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B7E2E8B8-1FD1-4CF5-91C1-5BC0530F0985}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A051820E-379B-4052-80E9-F821E793EE9F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{843AA2A0-0689-4272-9525-B55D4205FC72}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DFF2D14F-9BB5-48E6-9BA1-4822C2746209}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9A9F4187-CD03-4467-BE86-736F683D8EAD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3D3D69E0-8A87-4F87-B9BF-66DF220AD2D5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EE9A5CDB-AF6D-45E0-AAA2-BD7A385A43B9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EF9C9E59-0C65-4A5B-AB81-4B60D0739A35}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2AE256C0-B1C5-4FC8-B7F3-BDA982F253DF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15311,7 +15311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09CE262-3634-4CB3-BC2F-9D4E0127C2CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4A862F-FD18-425C-A215-4CA4041AAAC3}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -16553,17 +16553,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FBAD1669-2B6B-4755-9945-0BF4D9E7F6C8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AE124E2E-5E39-4B42-A818-2C1E0B3F49DF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8AB595DC-6293-4FC6-BA2A-FB4A90EAE218}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2457F00A-2C46-481F-8242-943B9A86EDBE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0B2829FE-2493-4ED7-B534-688ABFC96EDA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D19478D8-D9A2-4FA1-BFEF-2C99F5909DD8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4EA1230B-2035-466B-88CB-7726D4EE13D3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{93F98B5B-92FE-4041-A634-D30F08607A93}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{77C05FF0-82BE-47E9-B447-E6FDAD96077B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5420EFFE-595E-4516-A55E-0D7F225EC834}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6A7AB313-F8A9-4277-A72F-539166F4A165}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8F3A4195-BE9B-430E-9FA1-792885F6108E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C79ECECE-B5A3-40A7-9814-6371ED30A8D0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D460244B-76DE-410C-A2C0-B3B5C362092D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6FA9018B-A72F-4609-BBB9-E97CEB0BCF78}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4BBA32FF-2F5A-4F8E-9A30-4170B72E1481}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AC8581F9-333F-424F-8CCF-1EC652554AEF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{43DD956B-CEDD-47DD-81A4-6A54F823E948}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6B602AEF-7DC9-4FB4-A6E8-0BD992D75FFA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BAF68DDA-772E-4872-8444-80FA277ECE0A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C78F449A-3391-4D7B-A23F-286B4F353041}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9A1C11FB-63DD-4E2B-A56F-582BFFFD8211}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
